--- a/测试/建模数据.xlsx
+++ b/测试/建模数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/程序/测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3B46D4-B432-48B1-850F-A40003159B6D}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEE936E-6F0F-4B55-BB16-201C76AB68D9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5190" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>迭代次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,71 @@
   </si>
   <si>
     <t>线性回归/DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSprop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早停轮数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.1
+0.l1,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.1
+0.l1,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.001
+0.l1,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.001
+0.l1,0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.l2,0.01
+0.l1,0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,19 +183,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,486 +480,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="1">
         <v>3141</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="1">
         <v>7620</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="1">
         <v>6465</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="1">
         <v>6041</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J5" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
         <v>250</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="1">
         <v>5371</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
         <v>125</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
         <v>2.14E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="1">
         <v>6406</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="1">
         <v>2.76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
         <v>175</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>4.1599999999999996E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="1">
         <v>5752</v>
       </c>
-      <c r="G8" s="2">
+      <c r="J8" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
         <v>275</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="I9" s="1">
         <v>6100</v>
       </c>
-      <c r="G9" s="2">
+      <c r="J9" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
         <v>250</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="1">
         <v>6228</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J10" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
         <v>500</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="I11" s="1">
         <v>6197</v>
       </c>
-      <c r="G11" s="2">
+      <c r="J11" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
         <v>128</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I12" s="1">
         <v>6826</v>
       </c>
-      <c r="G12" s="2">
+      <c r="J12" s="1">
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="I13" s="1">
         <v>6539</v>
       </c>
-      <c r="G13" s="2">
+      <c r="J13" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
         <v>275</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I14" s="1">
         <v>7036</v>
       </c>
-      <c r="G14" s="2">
+      <c r="J14" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
         <v>200</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="I15" s="1">
         <v>9753</v>
       </c>
-      <c r="G15" s="2">
+      <c r="J15" s="1">
         <v>18555</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
         <v>500</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I16" s="1">
         <v>8378</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J16" s="1">
         <v>9054</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
         <v>750</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="I17" s="1">
         <v>6391</v>
       </c>
-      <c r="G17" s="2">
+      <c r="J17" s="1">
         <v>14217</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
         <v>625</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I18" s="1">
         <v>7818</v>
       </c>
-      <c r="G18" s="2">
+      <c r="J18" s="1">
         <v>11024</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
         <v>500</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="I19" s="1">
         <v>6485</v>
       </c>
-      <c r="G19" s="2">
+      <c r="J19" s="1">
         <v>12075</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
         <v>325</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I20" s="1">
         <v>8207</v>
       </c>
-      <c r="G20" s="2">
+      <c r="J20" s="1">
         <v>10894</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
         <v>250</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="I21" s="1">
         <v>8196</v>
       </c>
-      <c r="G21" s="2">
+      <c r="J21" s="1">
         <v>11252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5398</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.8387</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7561</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8407</v>
+      </c>
+      <c r="J25" s="1">
+        <v>24937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6272</v>
+      </c>
+      <c r="J26" s="1">
+        <v>26199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8739</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10649</v>
+      </c>
+      <c r="J28" s="1">
+        <v>19385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10371</v>
+      </c>
+      <c r="J29" s="1">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>11654</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8333</v>
+      </c>
+      <c r="J31" s="1">
+        <v>26748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7879</v>
+      </c>
+      <c r="J32" s="1">
+        <v>23108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8479</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>8134</v>
+      </c>
+      <c r="J34" s="1">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>6855</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6237</v>
+      </c>
+      <c r="J38" s="1">
+        <v>18489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8132</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试/建模数据.xlsx
+++ b/测试/建模数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEE936E-6F0F-4B55-BB16-201C76AB68D9}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E1C92C-B35D-49DF-95D0-18FB3F7497A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-2100" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>迭代次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>mse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性回归/DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,11 +119,6 @@
   <si>
     <t>7.l2,0.001
 0.l1,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.l2,0.001
-0.l1,0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,9 +183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -480,10 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,64 +487,96 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H1" s="3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I1" s="1">
+      <c r="N1" s="1">
         <v>3141</v>
       </c>
-      <c r="J1" s="1">
+      <c r="O1" s="1">
         <v>7620</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6465</v>
+      </c>
+      <c r="J2" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6041</v>
+      </c>
+      <c r="J3" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -567,18 +588,18 @@
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>1.8500000000000001E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I4" s="1">
-        <v>6465</v>
+        <v>5371</v>
       </c>
       <c r="J4" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="1">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -590,18 +611,18 @@
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>3.3E-3</v>
+        <v>2.14E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>6041</v>
+        <v>6406</v>
       </c>
       <c r="J5" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D6" s="1">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -613,18 +634,18 @@
         <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>4.1599999999999996E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>5371</v>
+        <v>5752</v>
       </c>
       <c r="J6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D7" s="1">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -636,64 +657,64 @@
         <v>4</v>
       </c>
       <c r="H7" s="3">
-        <v>2.14E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>6406</v>
+        <v>6100</v>
       </c>
       <c r="J7" s="1">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D8" s="1">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>4.1599999999999996E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>5752</v>
+        <v>6228</v>
       </c>
       <c r="J8" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D9" s="1">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>6100</v>
+        <v>6197</v>
       </c>
       <c r="J9" s="1">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -705,18 +726,18 @@
         <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I10" s="1">
-        <v>6228</v>
+        <v>6826</v>
       </c>
       <c r="J10" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D11" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -728,18 +749,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="I11" s="1">
-        <v>6197</v>
+        <v>6539</v>
       </c>
       <c r="J11" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -751,21 +772,21 @@
         <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I12" s="1">
-        <v>6826</v>
+        <v>7036</v>
       </c>
       <c r="J12" s="1">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D13" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -774,21 +795,21 @@
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>1.9E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="I13" s="1">
-        <v>6539</v>
+        <v>9753</v>
       </c>
       <c r="J13" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -797,64 +818,64 @@
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>7036</v>
+        <v>8378</v>
       </c>
       <c r="J14" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D15" s="1">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="I15" s="1">
-        <v>9753</v>
+        <v>6391</v>
       </c>
       <c r="J15" s="1">
-        <v>18555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="1">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="I16" s="1">
-        <v>8378</v>
+        <v>7818</v>
       </c>
       <c r="J16" s="1">
-        <v>9054</v>
+        <v>11024</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D17" s="1">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -866,18 +887,18 @@
         <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>5.4000000000000003E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>6391</v>
+        <v>6485</v>
       </c>
       <c r="J17" s="1">
-        <v>14217</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -889,18 +910,18 @@
         <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>5.3E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>7818</v>
+        <v>8207</v>
       </c>
       <c r="J18" s="1">
-        <v>11024</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D19" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -912,62 +933,68 @@
         <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>6485</v>
+        <v>8196</v>
       </c>
       <c r="J19" s="1">
-        <v>12075</v>
+        <v>11252</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
-        <v>325</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I20" s="1">
-        <v>8207</v>
+        <v>5398</v>
       </c>
       <c r="J20" s="1">
-        <v>10894</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
       <c r="D21" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>8196</v>
+        <v>0.8387</v>
       </c>
       <c r="J21" s="1">
-        <v>11252</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
       <c r="D22" s="1">
         <v>1000</v>
       </c>
@@ -975,45 +1002,45 @@
         <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="I22" s="1">
-        <v>5398</v>
+        <v>7561</v>
       </c>
       <c r="J22" s="1">
-        <v>5084</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1">
-        <v>7</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H23" s="3">
-        <v>1.4300000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I23" s="1">
-        <v>0.8387</v>
+        <v>8407</v>
       </c>
       <c r="J23" s="1">
-        <v>8054</v>
+        <v>24937</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1030,19 +1057,22 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>7561</v>
+        <v>6272</v>
       </c>
       <c r="J24" s="1">
-        <v>9663</v>
+        <v>26199</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
@@ -1056,19 +1086,25 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>8407</v>
+        <v>8739</v>
       </c>
       <c r="J25" s="1">
-        <v>24937</v>
+        <v>9736</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
@@ -1085,18 +1121,21 @@
         <v>4</v>
       </c>
       <c r="H26" s="3">
-        <v>7.1000000000000004E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>6272</v>
+        <v>10649</v>
       </c>
       <c r="J26" s="1">
-        <v>26199</v>
+        <v>19385</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -1114,22 +1153,22 @@
         <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>2.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>8739</v>
+        <v>10371</v>
       </c>
       <c r="J27" s="1">
-        <v>9736</v>
+        <v>21267</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
@@ -1143,25 +1182,25 @@
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I28" s="1">
-        <v>10649</v>
+        <v>11654</v>
       </c>
       <c r="J28" s="1">
-        <v>19385</v>
+        <v>20227</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
@@ -1172,28 +1211,28 @@
         <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>10371</v>
+        <v>8333</v>
       </c>
       <c r="J29" s="1">
-        <v>21267</v>
+        <v>26748</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>
@@ -1204,27 +1243,27 @@
         <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I30" s="1">
-        <v>11654</v>
+        <v>7879</v>
       </c>
       <c r="J30" s="1">
-        <v>20227</v>
+        <v>23108</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -1239,24 +1278,24 @@
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="I31" s="1">
-        <v>8333</v>
+        <v>8479</v>
       </c>
       <c r="J31" s="1">
-        <v>26748</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -1274,21 +1313,21 @@
         <v>4</v>
       </c>
       <c r="H32" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="I32" s="1">
-        <v>7879</v>
+        <v>8134</v>
       </c>
       <c r="J32" s="1">
-        <v>23108</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -1306,21 +1345,21 @@
         <v>4</v>
       </c>
       <c r="H33" s="3">
-        <v>3.8999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I33" s="1">
-        <v>8479</v>
+        <v>6855</v>
       </c>
       <c r="J33" s="1">
-        <v>9206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="1">
         <v>5</v>
@@ -1338,21 +1377,15 @@
         <v>4</v>
       </c>
       <c r="H34" s="3">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I34" s="1">
-        <v>8134</v>
-      </c>
-      <c r="J34" s="1">
-        <v>8747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
@@ -1370,20 +1403,14 @@
         <v>4</v>
       </c>
       <c r="H35" s="3">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6855</v>
-      </c>
-      <c r="J35" s="1">
-        <v>7329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1">
@@ -1402,15 +1429,21 @@
         <v>4</v>
       </c>
       <c r="H36" s="3">
-        <v>4.5500000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6237</v>
+      </c>
+      <c r="J36" s="1">
+        <v>18489</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
@@ -1422,22 +1455,26 @@
         <v>9</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="3">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8132</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="1">
         <v>5</v>
       </c>
@@ -1457,17 +1494,17 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I38" s="1">
-        <v>6237</v>
+        <v>7967</v>
       </c>
       <c r="J38" s="1">
-        <v>18489</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="1">
@@ -1485,66 +1522,8 @@
       <c r="G39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="3">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="I39" s="1">
-        <v>8132</v>
-      </c>
-      <c r="J39" s="1">
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:J2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/测试/建模数据.xlsx
+++ b/测试/建模数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E1C92C-B35D-49DF-95D0-18FB3F7497A1}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF88B7E-74AE-42C2-89BC-27C54D9F8ACF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-2100" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>迭代次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   <si>
     <t>7.l2,0.01
 0.l1,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,6 +207,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129685</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>426338</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>132112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E0AE60-E039-D657-A9F6-99454B3BE510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11131060" y="9544050"/>
+          <a:ext cx="14698453" cy="7961662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>431178</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>134733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2EB0A4-92C8-6884-FDB0-A149A2484212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="7600950"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,8 +568,8 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1503,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1571,9 @@
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C38" s="1">
         <v>5</v>
       </c>
@@ -1500,12 +1599,12 @@
         <v>8974</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -1516,16 +1615,20 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1">
-        <v>3</v>
+      <c r="F39" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="H39" s="3">
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>